--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zy\Desktop\zy_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F59028-1CDF-4D25-B620-559949A1CBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411039D5-9D07-410A-8ED5-34EE5332D5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>val Rain1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge_loss 0.05-&gt;0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,9 +99,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +156,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -447,7 +455,7 @@
     <col min="4" max="4" width="34.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.9140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -490,8 +498,8 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
-        <v>2021.0605</v>
+      <c r="G2" s="4">
+        <v>44352</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -510,8 +518,8 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
-        <v>2021.0606</v>
+      <c r="G3" s="4">
+        <v>44353</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -530,8 +538,8 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3">
-        <v>2021.0607</v>
+      <c r="G4" s="4">
+        <v>44354</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -550,8 +558,8 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3">
-        <v>2021.0608</v>
+      <c r="G5" s="4">
+        <v>44355</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -570,9 +578,12 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3">
-        <v>2021.0608999999999</v>
-      </c>
+      <c r="G6" s="4">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -590,8 +601,8 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3">
-        <v>2021.0609999999999</v>
+      <c r="G8" s="4">
+        <v>44357</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -610,8 +621,8 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3">
-        <v>2021.0610999999999</v>
+      <c r="G9" s="4">
+        <v>44358</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -630,8 +641,8 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3">
-        <v>2021.0612000000001</v>
+      <c r="G10" s="4">
+        <v>44359</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -650,8 +661,8 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3">
-        <v>2021.0613000000001</v>
+      <c r="G11" s="4">
+        <v>44360</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -670,9 +681,12 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3">
-        <v>2021.0614</v>
-      </c>
+      <c r="G12" s="4">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -690,8 +704,28 @@
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="3">
-        <v>2021.0616</v>
+      <c r="G14" s="4">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>32.49</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44364</v>
       </c>
     </row>
   </sheetData>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zy\Desktop\zy_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411039D5-9D07-410A-8ED5-34EE5332D5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD1F82-F639-49CC-91E1-796FB89EDC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="550" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,15 @@
   <si>
     <t>edge_loss 0.05-&gt;0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain100H</t>
+  </si>
+  <si>
+    <t>edge_loss 0.05-&gt;0.5</t>
+  </si>
+  <si>
+    <t>val Rain100L</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -728,6 +737,26 @@
         <v>44364</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44365</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
